--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H2">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I2">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J2">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>299.0165009402176</v>
+        <v>913.1988314632771</v>
       </c>
       <c r="R2">
-        <v>299.0165009402176</v>
+        <v>8218.789483169494</v>
       </c>
       <c r="S2">
-        <v>0.2735313182016061</v>
+        <v>0.365990770815258</v>
       </c>
       <c r="T2">
-        <v>0.2735313182016061</v>
+        <v>0.365990770815258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H3">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I3">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J3">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>173.0013705271363</v>
+        <v>372.467033695263</v>
       </c>
       <c r="R3">
-        <v>173.0013705271363</v>
+        <v>3352.203303257367</v>
       </c>
       <c r="S3">
-        <v>0.1582564600354046</v>
+        <v>0.1492769067027479</v>
       </c>
       <c r="T3">
-        <v>0.1582564600354046</v>
+        <v>0.1492769067027479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H4">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I4">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J4">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>170.5989421922388</v>
+        <v>385.858752268551</v>
       </c>
       <c r="R4">
-        <v>170.5989421922388</v>
+        <v>3472.728770416959</v>
       </c>
       <c r="S4">
-        <v>0.1560587907186173</v>
+        <v>0.1546440241741151</v>
       </c>
       <c r="T4">
-        <v>0.1560587907186173</v>
+        <v>0.1546440241741151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H5">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I5">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J5">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>127.256544434471</v>
+        <v>283.9506806824741</v>
       </c>
       <c r="R5">
-        <v>127.256544434471</v>
+        <v>2555.556126142266</v>
       </c>
       <c r="S5">
-        <v>0.1164104664441291</v>
+        <v>0.1138014251835746</v>
       </c>
       <c r="T5">
-        <v>0.1164104664441291</v>
+        <v>0.1138014251835746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H6">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I6">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J6">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>99.6511083432367</v>
+        <v>218.443402337598</v>
       </c>
       <c r="R6">
-        <v>99.6511083432367</v>
+        <v>1965.990621038382</v>
       </c>
       <c r="S6">
-        <v>0.09115784225843188</v>
+        <v>0.08754749398106303</v>
       </c>
       <c r="T6">
-        <v>0.09115784225843188</v>
+        <v>0.08754749398106301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4948476606063</v>
+        <v>26.687079</v>
       </c>
       <c r="H7">
-        <v>12.4948476606063</v>
+        <v>80.06123700000001</v>
       </c>
       <c r="I7">
-        <v>0.8302737766376145</v>
+        <v>0.904368363808284</v>
       </c>
       <c r="J7">
-        <v>0.8302737766376145</v>
+        <v>0.9043683638082839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>38.10673698349154</v>
+        <v>82.608509794857</v>
       </c>
       <c r="R7">
-        <v>38.10673698349154</v>
+        <v>743.476588153713</v>
       </c>
       <c r="S7">
-        <v>0.0348588989794255</v>
+        <v>0.03310774295152536</v>
       </c>
       <c r="T7">
-        <v>0.0348588989794255</v>
+        <v>0.03310774295152536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H8">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J8">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>28.09923419831325</v>
+        <v>40.27567795732367</v>
       </c>
       <c r="R8">
-        <v>28.09923419831325</v>
+        <v>362.481101615913</v>
       </c>
       <c r="S8">
-        <v>0.0257043358696012</v>
+        <v>0.01614163960009487</v>
       </c>
       <c r="T8">
-        <v>0.0257043358696012</v>
+        <v>0.01614163960009486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H9">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J9">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>16.25731694333174</v>
+        <v>16.42726839103856</v>
       </c>
       <c r="R9">
-        <v>16.25731694333174</v>
+        <v>147.845415519347</v>
       </c>
       <c r="S9">
-        <v>0.01487170547427382</v>
+        <v>0.006583701614238322</v>
       </c>
       <c r="T9">
-        <v>0.01487170547427382</v>
+        <v>0.00658370161423832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H10">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J10">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>16.03155550135551</v>
+        <v>17.01789611193545</v>
       </c>
       <c r="R10">
-        <v>16.03155550135551</v>
+        <v>153.161065007419</v>
       </c>
       <c r="S10">
-        <v>0.01466518568480174</v>
+        <v>0.006820412708677127</v>
       </c>
       <c r="T10">
-        <v>0.01466518568480174</v>
+        <v>0.006820412708677126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H11">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J11">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>11.95857564411527</v>
+        <v>12.52334735536734</v>
       </c>
       <c r="R11">
-        <v>11.95857564411527</v>
+        <v>112.710126198306</v>
       </c>
       <c r="S11">
-        <v>0.01093934598747262</v>
+        <v>0.005019092659627905</v>
       </c>
       <c r="T11">
-        <v>0.01093934598747262</v>
+        <v>0.005019092659627905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H12">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I12">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J12">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>9.364432473303285</v>
+        <v>9.634217457718002</v>
       </c>
       <c r="R12">
-        <v>9.364432473303285</v>
+        <v>86.70795711946201</v>
       </c>
       <c r="S12">
-        <v>0.008566301694315822</v>
+        <v>0.00386119052288102</v>
       </c>
       <c r="T12">
-        <v>0.008566301694315822</v>
+        <v>0.003861190522881019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.17416814651917</v>
+        <v>1.177005666666667</v>
       </c>
       <c r="H13">
-        <v>1.17416814651917</v>
+        <v>3.531017</v>
       </c>
       <c r="I13">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062454</v>
       </c>
       <c r="J13">
-        <v>0.07802264164385611</v>
+        <v>0.03988621943062453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N13">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q13">
-        <v>3.580973369916911</v>
+        <v>3.643361798548112</v>
       </c>
       <c r="R13">
-        <v>3.580973369916911</v>
+        <v>32.790256186933</v>
       </c>
       <c r="S13">
-        <v>0.003275766933390922</v>
+        <v>0.001460182325105297</v>
       </c>
       <c r="T13">
-        <v>0.003275766933390922</v>
+        <v>0.001460182325105297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H14">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J14">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N14">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q14">
-        <v>1.615895937680359</v>
+        <v>2.699073369151</v>
       </c>
       <c r="R14">
-        <v>1.615895937680359</v>
+        <v>24.291660322359</v>
       </c>
       <c r="S14">
-        <v>0.001478173092523405</v>
+        <v>0.001081731501210571</v>
       </c>
       <c r="T14">
-        <v>0.001478173092523405</v>
+        <v>0.001081731501210571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H15">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J15">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N15">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q15">
-        <v>0.9349056355382376</v>
+        <v>1.100872906202333</v>
       </c>
       <c r="R15">
-        <v>0.9349056355382376</v>
+        <v>9.907856155821001</v>
       </c>
       <c r="S15">
-        <v>0.0008552236083252534</v>
+        <v>0.0004412065692911781</v>
       </c>
       <c r="T15">
-        <v>0.0008552236083252534</v>
+        <v>0.0004412065692911781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H16">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J16">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N16">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q16">
-        <v>0.9219228263129191</v>
+        <v>1.140453805479667</v>
       </c>
       <c r="R16">
-        <v>0.9219228263129191</v>
+        <v>10.264084249317</v>
       </c>
       <c r="S16">
-        <v>0.0008433473242065006</v>
+        <v>0.0004570697562959841</v>
       </c>
       <c r="T16">
-        <v>0.0008433473242065006</v>
+        <v>0.0004570697562959841</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H17">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I17">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J17">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N17">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q17">
-        <v>0.6876989482129419</v>
+        <v>0.8392517532620002</v>
       </c>
       <c r="R17">
-        <v>0.6876989482129419</v>
+        <v>7.553265779358001</v>
       </c>
       <c r="S17">
-        <v>0.0006290863522215864</v>
+        <v>0.000336354346393804</v>
       </c>
       <c r="T17">
-        <v>0.0006290863522215864</v>
+        <v>0.000336354346393804</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H18">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I18">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J18">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N18">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q18">
-        <v>0.5385181775950734</v>
+        <v>0.645636798474</v>
       </c>
       <c r="R18">
-        <v>0.5385181775950734</v>
+        <v>5.810731186266</v>
       </c>
       <c r="S18">
-        <v>0.0004926202618582479</v>
+        <v>0.0002587575688873371</v>
       </c>
       <c r="T18">
-        <v>0.0004926202618582479</v>
+        <v>0.0002587575688873371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0675226066562304</v>
+        <v>0.078877</v>
       </c>
       <c r="H19">
-        <v>0.0675226066562304</v>
+        <v>0.236631</v>
       </c>
       <c r="I19">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="J19">
-        <v>0.004486829384373957</v>
+        <v>0.00267297381748321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N19">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q19">
-        <v>0.205930178756887</v>
+        <v>0.2441597833576667</v>
       </c>
       <c r="R19">
-        <v>0.205930178756887</v>
+        <v>2.197438050219</v>
       </c>
       <c r="S19">
-        <v>0.000188378745238964</v>
+        <v>9.785407540433579E-05</v>
       </c>
       <c r="T19">
-        <v>0.000188378745238964</v>
+        <v>9.785407540433577E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H20">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J20">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N20">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q20">
-        <v>31.41042008088302</v>
+        <v>4.615575034746334</v>
       </c>
       <c r="R20">
-        <v>31.41042008088302</v>
+        <v>41.540175312717</v>
       </c>
       <c r="S20">
-        <v>0.02873330930893302</v>
+        <v>0.001849824820751978</v>
       </c>
       <c r="T20">
-        <v>0.02873330930893302</v>
+        <v>0.001849824820751977</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H21">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I21">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J21">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N21">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q21">
-        <v>18.17306304414376</v>
+        <v>1.882557754958111</v>
       </c>
       <c r="R21">
-        <v>18.17306304414376</v>
+        <v>16.943019794623</v>
       </c>
       <c r="S21">
-        <v>0.01662417249414395</v>
+        <v>0.0007544893183200135</v>
       </c>
       <c r="T21">
-        <v>0.01662417249414395</v>
+        <v>0.0007544893183200134</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1780,49 +1780,49 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H22">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I22">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J22">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N22">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q22">
-        <v>17.92069809780779</v>
+        <v>1.950243432807889</v>
       </c>
       <c r="R22">
-        <v>17.92069809780779</v>
+        <v>17.552190895271</v>
       </c>
       <c r="S22">
-        <v>0.01639331661755487</v>
+        <v>0.0007816163059550053</v>
       </c>
       <c r="T22">
-        <v>0.01639331661755487</v>
+        <v>0.0007816163059550052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H23">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I23">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J23">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N23">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q23">
-        <v>13.3677623347196</v>
+        <v>1.435170115972667</v>
       </c>
       <c r="R23">
-        <v>13.3677623347196</v>
+        <v>12.916531043754</v>
       </c>
       <c r="S23">
-        <v>0.01222842766644734</v>
+        <v>0.0005751858181357979</v>
       </c>
       <c r="T23">
-        <v>0.01222842766644734</v>
+        <v>0.0005751858181357978</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.31253095609178</v>
+        <v>0.1348843333333333</v>
       </c>
       <c r="H24">
-        <v>1.31253095609178</v>
+        <v>0.404653</v>
       </c>
       <c r="I24">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347527</v>
       </c>
       <c r="J24">
-        <v>0.08721675233415543</v>
+        <v>0.004570943258347526</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N24">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q24">
-        <v>10.46792790613402</v>
+        <v>1.104077096462</v>
       </c>
       <c r="R24">
-        <v>10.46792790613402</v>
+        <v>9.936693868158001</v>
       </c>
       <c r="S24">
-        <v>0.009575746187922509</v>
+        <v>0.0004424907409551903</v>
       </c>
       <c r="T24">
-        <v>0.009575746187922509</v>
+        <v>0.0004424907409551902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1348843333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.404653</v>
+      </c>
+      <c r="I25">
+        <v>0.004570943258347527</v>
+      </c>
+      <c r="J25">
+        <v>0.004570943258347526</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.286349</v>
+      </c>
+      <c r="O25">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P25">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q25">
+        <v>0.4175276646552222</v>
+      </c>
+      <c r="R25">
+        <v>3.757748981897</v>
+      </c>
+      <c r="S25">
+        <v>0.0001673362542295417</v>
+      </c>
+      <c r="T25">
+        <v>0.0001673362542295417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.166189</v>
+      </c>
+      <c r="I26">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J26">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>34.218763</v>
+      </c>
+      <c r="N26">
+        <v>102.656289</v>
+      </c>
+      <c r="O26">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P26">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q26">
+        <v>1.895594001402333</v>
+      </c>
+      <c r="R26">
+        <v>17.060346012621</v>
+      </c>
+      <c r="S26">
+        <v>0.000759713970082887</v>
+      </c>
+      <c r="T26">
+        <v>0.0007597139700828867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.166189</v>
+      </c>
+      <c r="I27">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J27">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N27">
+        <v>41.870491</v>
+      </c>
+      <c r="O27">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P27">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q27">
+        <v>0.7731572254221112</v>
+      </c>
+      <c r="R27">
+        <v>6.958415028799</v>
+      </c>
+      <c r="S27">
+        <v>0.0003098650580183138</v>
+      </c>
+      <c r="T27">
+        <v>0.0003098650580183137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.166189</v>
+      </c>
+      <c r="I28">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J28">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N28">
+        <v>43.375907</v>
+      </c>
+      <c r="O28">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P28">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q28">
+        <v>0.8009554009358888</v>
+      </c>
+      <c r="R28">
+        <v>7.208598608422999</v>
+      </c>
+      <c r="S28">
+        <v>0.0003210059786294835</v>
+      </c>
+      <c r="T28">
+        <v>0.0003210059786294834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.166189</v>
+      </c>
+      <c r="I29">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J29">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.640006</v>
+      </c>
+      <c r="N29">
+        <v>31.920018</v>
+      </c>
+      <c r="O29">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P29">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q29">
+        <v>0.5894173190446668</v>
+      </c>
+      <c r="R29">
+        <v>5.304755871402</v>
+      </c>
+      <c r="S29">
+        <v>0.0002362259909852889</v>
+      </c>
+      <c r="T29">
+        <v>0.0002362259909852889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.166189</v>
+      </c>
+      <c r="I30">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J30">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.185362</v>
+      </c>
+      <c r="N30">
+        <v>24.556086</v>
+      </c>
+      <c r="O30">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P30">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q30">
+        <v>0.453439041806</v>
+      </c>
+      <c r="R30">
+        <v>4.080951376254</v>
+      </c>
+      <c r="S30">
+        <v>0.0001817287744032594</v>
+      </c>
+      <c r="T30">
+        <v>0.0001817287744032594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05539633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.166189</v>
+      </c>
+      <c r="I31">
+        <v>0.001877263950005356</v>
+      </c>
+      <c r="J31">
+        <v>0.001877263950005355</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N31">
+        <v>9.286349</v>
+      </c>
+      <c r="O31">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P31">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q31">
+        <v>0.1714765615512222</v>
+      </c>
+      <c r="R31">
+        <v>1.543289053961</v>
+      </c>
+      <c r="S31">
+        <v>6.872417788612295E-05</v>
+      </c>
+      <c r="T31">
+        <v>6.872417788612293E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H32">
+        <v>4.127515</v>
+      </c>
+      <c r="I32">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J32">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34.218763</v>
+      </c>
+      <c r="N32">
+        <v>102.656289</v>
+      </c>
+      <c r="O32">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P32">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q32">
+        <v>47.07948585464833</v>
+      </c>
+      <c r="R32">
+        <v>423.715372691835</v>
+      </c>
+      <c r="S32">
+        <v>0.01886846185503654</v>
+      </c>
+      <c r="T32">
+        <v>0.01886846185503653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H33">
+        <v>4.127515</v>
+      </c>
+      <c r="I33">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J33">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N33">
+        <v>41.870491</v>
+      </c>
+      <c r="O33">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P33">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q33">
+        <v>19.20234218442944</v>
+      </c>
+      <c r="R33">
+        <v>172.821079659865</v>
+      </c>
+      <c r="S33">
+        <v>0.007695892477519332</v>
+      </c>
+      <c r="T33">
+        <v>0.007695892477519331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H34">
+        <v>4.127515</v>
+      </c>
+      <c r="I34">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J34">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N34">
+        <v>43.375907</v>
+      </c>
+      <c r="O34">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P34">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q34">
+        <v>19.89274519790055</v>
+      </c>
+      <c r="R34">
+        <v>179.034706781105</v>
+      </c>
+      <c r="S34">
+        <v>0.007972591398244605</v>
+      </c>
+      <c r="T34">
+        <v>0.007972591398244602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="H25">
-        <v>1.31253095609178</v>
-      </c>
-      <c r="I25">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="J25">
-        <v>0.08721675233415543</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="N25">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="O25">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="P25">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="Q25">
-        <v>4.002951719385201</v>
-      </c>
-      <c r="R25">
-        <v>4.002951719385201</v>
-      </c>
-      <c r="S25">
-        <v>0.003661780059153757</v>
-      </c>
-      <c r="T25">
-        <v>0.003661780059153757</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H35">
+        <v>4.127515</v>
+      </c>
+      <c r="I35">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J35">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10.640006</v>
+      </c>
+      <c r="N35">
+        <v>31.920018</v>
+      </c>
+      <c r="O35">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P35">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q35">
+        <v>14.63892812169667</v>
+      </c>
+      <c r="R35">
+        <v>131.75035309527</v>
+      </c>
+      <c r="S35">
+        <v>0.005866972670764279</v>
+      </c>
+      <c r="T35">
+        <v>0.005866972670764277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H36">
+        <v>4.127515</v>
+      </c>
+      <c r="I36">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J36">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.185362</v>
+      </c>
+      <c r="N36">
+        <v>24.556086</v>
+      </c>
+      <c r="O36">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P36">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q36">
+        <v>11.26173481181</v>
+      </c>
+      <c r="R36">
+        <v>101.35561330629</v>
+      </c>
+      <c r="S36">
+        <v>0.004513465044503963</v>
+      </c>
+      <c r="T36">
+        <v>0.004513465044503962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.375838333333333</v>
+      </c>
+      <c r="H37">
+        <v>4.127515</v>
+      </c>
+      <c r="I37">
+        <v>0.04662423573525537</v>
+      </c>
+      <c r="J37">
+        <v>0.04662423573525536</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N37">
+        <v>9.286349</v>
+      </c>
+      <c r="O37">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P37">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q37">
+        <v>4.258838310303888</v>
+      </c>
+      <c r="R37">
+        <v>38.329544792735</v>
+      </c>
+      <c r="S37">
+        <v>0.001706852289186654</v>
+      </c>
+      <c r="T37">
+        <v>0.001706852289186653</v>
       </c>
     </row>
   </sheetData>
